--- a/pmp/考题总结.xlsx
+++ b/pmp/考题总结.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>知识领域</t>
   </si>
@@ -296,6 +296,66 @@
   </si>
   <si>
     <t>一模200</t>
+  </si>
+  <si>
+    <t>假设条件和制约因素</t>
+  </si>
+  <si>
+    <t>抛题1</t>
+  </si>
+  <si>
+    <t>相关方</t>
+  </si>
+  <si>
+    <t>13.2 规划相关方参与</t>
+  </si>
+  <si>
+    <t>相关方登记册</t>
+  </si>
+  <si>
+    <t>一模17</t>
+  </si>
+  <si>
+    <t>相关方登记册更新的时间点: 相关方更换时</t>
+  </si>
+  <si>
+    <t>相关方参与</t>
+  </si>
+  <si>
+    <t>一模20</t>
+  </si>
+  <si>
+    <t>在规划项目、制定项目管理计划和项目文件时，项目团队应当鼓励所有相关方参与</t>
+  </si>
+  <si>
+    <t>13.3 管理相关方</t>
+  </si>
+  <si>
+    <t>冲突解决的方法</t>
+  </si>
+  <si>
+    <t>一模128</t>
+  </si>
+  <si>
+    <t>冲突解决的方法: 妥协/调和/强迫/回避</t>
+  </si>
+  <si>
+    <t>权力/利益方格</t>
+  </si>
+  <si>
+    <t>一模139</t>
+  </si>
+  <si>
+    <t>权利/利益方格是相关方分析工具的一种表现形式，根据相关方的职权（权力）大小及对项目结果的关注（利益）程度进行分类</t>
+  </si>
+  <si>
+    <t>13.1 识别相关方</t>
+  </si>
+  <si>
+    <t>项目相关方识别</t>
+  </si>
+  <si>
+    <t>一模166</t>
   </si>
 </sst>
 </file>
@@ -303,10 +363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -333,13 +393,6 @@
       <color rgb="FF666666"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -364,6 +417,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -372,14 +500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -389,39 +509,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,50 +538,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -500,37 +560,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,13 +680,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,115 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,28 +745,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +775,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -746,21 +821,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,156 +844,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1264,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>
@@ -1275,7 +1332,7 @@
     <col min="2" max="2" width="27.2166666666667" customWidth="1"/>
     <col min="3" max="3" width="70.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="9.725" customWidth="1"/>
-    <col min="5" max="5" width="61.6583333333333" customWidth="1"/>
+    <col min="5" max="5" width="60.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1288,8 +1345,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -1309,7 +1366,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1381,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1339,7 +1396,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1411,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1426,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1384,7 +1441,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1399,7 +1456,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1409,10 +1466,10 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1427,8 +1484,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1440,7 +1497,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1512,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,14 +1533,14 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1555,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1513,7 +1570,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1528,18 +1585,18 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1611,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1569,9 +1626,9 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1580,7 +1637,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1652,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1667,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,12 +1677,12 @@
       <c r="D24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1640,8 +1697,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1710,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1668,7 +1725,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1740,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1693,10 +1750,10 @@
       <c r="D29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1711,7 +1768,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
@@ -1726,7 +1783,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1798,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1813,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1766,10 +1823,10 @@
       <c r="D34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1779,23 +1836,23 @@
       <c r="D35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
@@ -1805,16 +1862,16 @@
       <c r="D37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1825,32 +1882,110 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C40"/>

--- a/pmp/考题总结.xlsx
+++ b/pmp/考题总结.xlsx
@@ -1323,8 +1323,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>

--- a/pmp/考题总结.xlsx
+++ b/pmp/考题总结.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12520"/>
+    <workbookView windowWidth="28000" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>知识领域</t>
   </si>
@@ -356,6 +356,39 @@
   </si>
   <si>
     <t>一模166</t>
+  </si>
+  <si>
+    <t>5.3 定义范围</t>
+  </si>
+  <si>
+    <t>定义范围的输入</t>
+  </si>
+  <si>
+    <t>一模46</t>
+  </si>
+  <si>
+    <t>项目章程是定义范围的输入</t>
+  </si>
+  <si>
+    <t>5.4 创建WBS</t>
+  </si>
+  <si>
+    <t>WBS词典</t>
+  </si>
+  <si>
+    <t>一模51</t>
+  </si>
+  <si>
+    <t>WBS词典定义了WBS中的每个组成要素</t>
+  </si>
+  <si>
+    <t>产品分析</t>
+  </si>
+  <si>
+    <t>一模53</t>
+  </si>
+  <si>
+    <t>定义范围的工具包括产品分析</t>
   </si>
 </sst>
 </file>
@@ -363,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -396,14 +429,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,16 +481,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +505,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -462,82 +571,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -554,6 +587,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,7 +665,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,151 +713,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,8 +778,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,37 +808,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,6 +833,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -839,153 +861,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>
@@ -1987,8 +2020,50 @@
         <v>112</v>
       </c>
     </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C40"/>
+  <autoFilter ref="C1:C41"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
